--- a/download/718 圆钢.xlsx
+++ b/download/718 圆钢.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="389">
   <si>
     <t>物料号</t>
   </si>
@@ -40,7 +40,7 @@
     <t>入库长度</t>
   </si>
   <si>
-    <t>出库次数</t>
+    <t>切分</t>
   </si>
   <si>
     <t>库存长度</t>
@@ -59,6 +59,1128 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>M000882</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>固溶时效120KSI</t>
+  </si>
+  <si>
+    <t>ASTM-B637-2016</t>
+  </si>
+  <si>
+    <t>中航上大</t>
+  </si>
+  <si>
+    <t>1D70643</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>18.25</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>M004299</t>
+  </si>
+  <si>
+    <t>固溶时效</t>
+  </si>
+  <si>
+    <t>API STANDARD 6ACRA-2015(2019)</t>
+  </si>
+  <si>
+    <t>3KD70742</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>280.35</t>
+  </si>
+  <si>
+    <t>M004300</t>
+  </si>
+  <si>
+    <t>3KD70741</t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>286.58</t>
+  </si>
+  <si>
+    <t>M004301</t>
+  </si>
+  <si>
+    <t>2690</t>
+  </si>
+  <si>
+    <t>167.59</t>
+  </si>
+  <si>
+    <t>M004298</t>
+  </si>
+  <si>
+    <t>4830</t>
+  </si>
+  <si>
+    <t>300.91</t>
+  </si>
+  <si>
+    <t>M004297</t>
+  </si>
+  <si>
+    <t>3KD70746</t>
+  </si>
+  <si>
+    <t>4780</t>
+  </si>
+  <si>
+    <t>297.79</t>
+  </si>
+  <si>
+    <t>M004296</t>
+  </si>
+  <si>
+    <t>4180</t>
+  </si>
+  <si>
+    <t>260.41</t>
+  </si>
+  <si>
+    <t>M000883</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>9.03</t>
+  </si>
+  <si>
+    <t>M004312</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>3KD70740</t>
+  </si>
+  <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>231.43</t>
+  </si>
+  <si>
+    <t>M004313</t>
+  </si>
+  <si>
+    <t>3KD70744</t>
+  </si>
+  <si>
+    <t>4485</t>
+  </si>
+  <si>
+    <t>338.09</t>
+  </si>
+  <si>
+    <t>M004314</t>
+  </si>
+  <si>
+    <t>3990</t>
+  </si>
+  <si>
+    <t>300.78</t>
+  </si>
+  <si>
+    <t>M004315</t>
+  </si>
+  <si>
+    <t>4120</t>
+  </si>
+  <si>
+    <t>310.58</t>
+  </si>
+  <si>
+    <t>M004321</t>
+  </si>
+  <si>
+    <t>3KD70745</t>
+  </si>
+  <si>
+    <t>3770</t>
+  </si>
+  <si>
+    <t>284.19</t>
+  </si>
+  <si>
+    <t>M004320</t>
+  </si>
+  <si>
+    <t>4290</t>
+  </si>
+  <si>
+    <t>323.39</t>
+  </si>
+  <si>
+    <t>M004319</t>
+  </si>
+  <si>
+    <t>3KD70748</t>
+  </si>
+  <si>
+    <t>3595</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>M004318</t>
+  </si>
+  <si>
+    <t>3760</t>
+  </si>
+  <si>
+    <t>283.44</t>
+  </si>
+  <si>
+    <t>M004317</t>
+  </si>
+  <si>
+    <t>3KD70747</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>318.87</t>
+  </si>
+  <si>
+    <t>M004316</t>
+  </si>
+  <si>
+    <t>3935</t>
+  </si>
+  <si>
+    <t>296.63</t>
+  </si>
+  <si>
+    <t>L801</t>
+  </si>
+  <si>
+    <t>YQ-JS-M-006B</t>
+  </si>
+  <si>
+    <t>重庆重材</t>
+  </si>
+  <si>
+    <t>L210045</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>中间打了68孔</t>
+  </si>
+  <si>
+    <t>M003580</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>3KD70550</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>123.51</t>
+  </si>
+  <si>
+    <t>M003585</t>
+  </si>
+  <si>
+    <t>3KD70547</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>14.37</t>
+  </si>
+  <si>
+    <t>M004063</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>3KD10344</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>71.6</t>
+  </si>
+  <si>
+    <t>M004302</t>
+  </si>
+  <si>
+    <t>3KD10345</t>
+  </si>
+  <si>
+    <t>5305</t>
+  </si>
+  <si>
+    <t>558.55</t>
+  </si>
+  <si>
+    <t>M005415</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>API STANARD 6ACRA-2015(2019)</t>
+  </si>
+  <si>
+    <t>3KD71052</t>
+  </si>
+  <si>
+    <t>3345</t>
+  </si>
+  <si>
+    <t>396.86</t>
+  </si>
+  <si>
+    <t>M005416</t>
+  </si>
+  <si>
+    <t>3KD71053</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>135.25</t>
+  </si>
+  <si>
+    <t>M001724</t>
+  </si>
+  <si>
+    <t>XYGN5226-2022-01-006</t>
+  </si>
+  <si>
+    <t>大冶特殊钢</t>
+  </si>
+  <si>
+    <t>2420218R</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>18.86</t>
+  </si>
+  <si>
+    <t>M003254</t>
+  </si>
+  <si>
+    <t>3KD30163</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>19.34</t>
+  </si>
+  <si>
+    <t>M003258</t>
+  </si>
+  <si>
+    <t>3KD30164</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>37.97</t>
+  </si>
+  <si>
+    <t>M003931</t>
+  </si>
+  <si>
+    <t>3KD70758</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>186.86</t>
+  </si>
+  <si>
+    <t>M003932</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>191.02</t>
+  </si>
+  <si>
+    <t>M003933</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>184.85</t>
+  </si>
+  <si>
+    <t>M003935</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>169.31</t>
+  </si>
+  <si>
+    <t>1010+414</t>
+  </si>
+  <si>
+    <t>M005414</t>
+  </si>
+  <si>
+    <t>3KD71035</t>
+  </si>
+  <si>
+    <t>M001729</t>
+  </si>
+  <si>
+    <t>2420188R</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>120.51</t>
+  </si>
+  <si>
+    <t>有缺陷</t>
+  </si>
+  <si>
+    <t>M004326</t>
+  </si>
+  <si>
+    <t>146.5</t>
+  </si>
+  <si>
+    <t>3KD10347</t>
+  </si>
+  <si>
+    <t>3750</t>
+  </si>
+  <si>
+    <t>501.41</t>
+  </si>
+  <si>
+    <t>M004327</t>
+  </si>
+  <si>
+    <t>3KD30254</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>171.15</t>
+  </si>
+  <si>
+    <t>M004325</t>
+  </si>
+  <si>
+    <t>3KD10349</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>141.73</t>
+  </si>
+  <si>
+    <t>M003262</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>3KD30176</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>70.96</t>
+  </si>
+  <si>
+    <t>M003263</t>
+  </si>
+  <si>
+    <t>3KD30181</t>
+  </si>
+  <si>
+    <t>4078</t>
+  </si>
+  <si>
+    <t>556.49</t>
+  </si>
+  <si>
+    <t>M000881</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>1D70645</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>32.52</t>
+  </si>
+  <si>
+    <t>1110处有切口</t>
+  </si>
+  <si>
+    <t>M004322</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>3KD10340</t>
+  </si>
+  <si>
+    <t>2645</t>
+  </si>
+  <si>
+    <t>380.72</t>
+  </si>
+  <si>
+    <t>M003756</t>
+  </si>
+  <si>
+    <t>3KD70551</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>277.8</t>
+  </si>
+  <si>
+    <t>M004161</t>
+  </si>
+  <si>
+    <t>3KD10336</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>269.88</t>
+  </si>
+  <si>
+    <t>M004162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3KD10338</t>
+  </si>
+  <si>
+    <t>3250</t>
+  </si>
+  <si>
+    <t>467.8</t>
+  </si>
+  <si>
+    <t>M004324</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>3KD30256</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>365.49</t>
+  </si>
+  <si>
+    <t>M004323</t>
+  </si>
+  <si>
+    <t>3KD30255</t>
+  </si>
+  <si>
+    <t>4385</t>
+  </si>
+  <si>
+    <t>681.98</t>
+  </si>
+  <si>
+    <t>M003264</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>3KD10274</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>225.95</t>
+  </si>
+  <si>
+    <t>M003763</t>
+  </si>
+  <si>
+    <t>3KD70559</t>
+  </si>
+  <si>
+    <t>2922</t>
+  </si>
+  <si>
+    <t>513.79</t>
+  </si>
+  <si>
+    <t>M003764</t>
+  </si>
+  <si>
+    <t>3KD70560</t>
+  </si>
+  <si>
+    <t>119.57</t>
+  </si>
+  <si>
+    <t>M003765</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>3KH80092</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>265.17</t>
+  </si>
+  <si>
+    <t>已卖</t>
+  </si>
+  <si>
+    <t>M000903</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>7D70138</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>M000893</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>M000901</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>M000898</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>8.64</t>
+  </si>
+  <si>
+    <t>M003766</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>471.7</t>
+  </si>
+  <si>
+    <t>M000895</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2630</t>
+  </si>
+  <si>
+    <t>14.75</t>
+  </si>
+  <si>
+    <t>M000902</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>15.46</t>
+  </si>
+  <si>
+    <t>M000892</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>13.43</t>
+  </si>
+  <si>
+    <t>M000899</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>9.16</t>
+  </si>
+  <si>
+    <t>M000887</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>0D70727</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>M000240</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>M000891</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>27.73</t>
+  </si>
+  <si>
+    <t>M000889</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>28.57</t>
+  </si>
+  <si>
+    <t>M000888</t>
+  </si>
+  <si>
+    <t>2428</t>
+  </si>
+  <si>
+    <t>30.63</t>
+  </si>
+  <si>
+    <t>M000886</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>0D70338</t>
+  </si>
+  <si>
+    <t>29.68</t>
+  </si>
+  <si>
+    <t>M004726</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>ASTM  B637-2016</t>
+  </si>
+  <si>
+    <t>3KD70311</t>
+  </si>
+  <si>
+    <t>5345</t>
+  </si>
+  <si>
+    <t>119.88</t>
+  </si>
+  <si>
+    <t>M004720</t>
+  </si>
+  <si>
+    <t>3KD70234</t>
+  </si>
+  <si>
+    <t>4940</t>
+  </si>
+  <si>
+    <t>110.79</t>
+  </si>
+  <si>
+    <t>M004721</t>
+  </si>
+  <si>
+    <t>4720</t>
+  </si>
+  <si>
+    <t>105.86</t>
+  </si>
+  <si>
+    <t>M004722</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>105.41</t>
+  </si>
+  <si>
+    <t>M004723</t>
+  </si>
+  <si>
+    <t>4890</t>
+  </si>
+  <si>
+    <t>109.67</t>
+  </si>
+  <si>
+    <t>M004724</t>
+  </si>
+  <si>
+    <t>4565</t>
+  </si>
+  <si>
+    <t>102.38</t>
+  </si>
+  <si>
+    <t>M004725</t>
+  </si>
+  <si>
+    <t>4580</t>
+  </si>
+  <si>
+    <t>102.72</t>
+  </si>
+  <si>
+    <t>M004727</t>
+  </si>
+  <si>
+    <t>4965</t>
+  </si>
+  <si>
+    <t>111.36</t>
+  </si>
+  <si>
+    <t>M004728</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>89.71</t>
+  </si>
+  <si>
+    <t>M004729</t>
+  </si>
+  <si>
+    <t>4545</t>
+  </si>
+  <si>
+    <t>101.94</t>
+  </si>
+  <si>
+    <t>M004026</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>ASTM B637-2016</t>
+  </si>
+  <si>
+    <t>3KHD70033</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>76.33</t>
+  </si>
+  <si>
+    <t>M004027</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>M004028</t>
+  </si>
+  <si>
+    <t>3885</t>
+  </si>
+  <si>
+    <t>102.26</t>
+  </si>
+  <si>
+    <t>M004023</t>
+  </si>
+  <si>
+    <t>3940</t>
+  </si>
+  <si>
+    <t>103.71</t>
+  </si>
+  <si>
+    <t>M004025</t>
+  </si>
+  <si>
+    <t>3420</t>
+  </si>
+  <si>
+    <t>90.02</t>
+  </si>
+  <si>
+    <t>Z23010208</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>取芯材</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>6.64</t>
+  </si>
+  <si>
+    <t>Z23010209</t>
+  </si>
+  <si>
+    <t>M000885</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>0D20001</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>39.87</t>
+  </si>
+  <si>
+    <t>M004305</t>
+  </si>
+  <si>
+    <t>3KD70558</t>
+  </si>
+  <si>
+    <t>4045</t>
+  </si>
+  <si>
+    <t>204.12</t>
+  </si>
+  <si>
+    <t>M004304</t>
+  </si>
+  <si>
+    <t>3235</t>
+  </si>
+  <si>
+    <t>163.25</t>
+  </si>
+  <si>
+    <t>M004303</t>
+  </si>
+  <si>
+    <t>M003089</t>
+  </si>
+  <si>
+    <t>3KD80335</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>17.81</t>
+  </si>
+  <si>
+    <t>M003090</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>M003294</t>
+  </si>
+  <si>
+    <t>3KD30175</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>M003255</t>
+  </si>
+  <si>
+    <t>3KD30172</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>M003296</t>
+  </si>
+  <si>
+    <t>6.56</t>
+  </si>
+  <si>
+    <t>Z23010207</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>M004310</t>
+  </si>
+  <si>
+    <t>3KD70557</t>
+  </si>
+  <si>
+    <t>M004309</t>
+  </si>
+  <si>
+    <t>4042</t>
+  </si>
+  <si>
+    <t>203.97</t>
+  </si>
+  <si>
+    <t>M004308</t>
+  </si>
+  <si>
+    <t>4020</t>
+  </si>
+  <si>
+    <t>202.86</t>
+  </si>
+  <si>
+    <t>M004307</t>
+  </si>
+  <si>
+    <t>3KH80094</t>
+  </si>
+  <si>
+    <t>4850</t>
+  </si>
+  <si>
+    <t>244.75</t>
+  </si>
+  <si>
+    <t>M004306</t>
+  </si>
+  <si>
+    <t>5660</t>
+  </si>
+  <si>
+    <t>285.62</t>
   </si>
 </sst>
 </file>
@@ -401,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,6 +1593,3956 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" t="s">
+        <v>162</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>165</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" t="s">
+        <v>166</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
+        <v>170</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" t="s">
+        <v>175</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>189</v>
+      </c>
+      <c r="K42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>193</v>
+      </c>
+      <c r="K43" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>197</v>
+      </c>
+      <c r="K44" t="s">
+        <v>198</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" t="s">
+        <v>202</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>206</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" t="s">
+        <v>207</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" t="s">
+        <v>211</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>215</v>
+      </c>
+      <c r="K48" t="s">
+        <v>216</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" t="s">
+        <v>220</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K50" t="s">
+        <v>223</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" t="s">
+        <v>228</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>233</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>233</v>
+      </c>
+      <c r="K52" t="s">
+        <v>234</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>236</v>
+      </c>
+      <c r="K53" t="s">
+        <v>237</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>239</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>239</v>
+      </c>
+      <c r="K54" t="s">
+        <v>240</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>242</v>
+      </c>
+      <c r="K55" t="s">
+        <v>243</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>250</v>
+      </c>
+      <c r="K57" t="s">
+        <v>251</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58" t="s">
+        <v>254</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>256</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>256</v>
+      </c>
+      <c r="K59" t="s">
+        <v>257</v>
+      </c>
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>260</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>260</v>
+      </c>
+      <c r="K60" t="s">
+        <v>261</v>
+      </c>
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>265</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" t="s">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>268</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>268</v>
+      </c>
+      <c r="K62" t="s">
+        <v>269</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>271</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>271</v>
+      </c>
+      <c r="K63" t="s">
+        <v>272</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>274</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>274</v>
+      </c>
+      <c r="K64" t="s">
+        <v>275</v>
+      </c>
+      <c r="M64" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>264</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>277</v>
+      </c>
+      <c r="K65" t="s">
+        <v>278</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>281</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>139</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>139</v>
+      </c>
+      <c r="K66" t="s">
+        <v>282</v>
+      </c>
+      <c r="M66" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>285</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>286</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>287</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>287</v>
+      </c>
+      <c r="K67" t="s">
+        <v>288</v>
+      </c>
+      <c r="M67" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>290</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>291</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>291</v>
+      </c>
+      <c r="K68" t="s">
+        <v>292</v>
+      </c>
+      <c r="M68" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>290</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>294</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>294</v>
+      </c>
+      <c r="K69" t="s">
+        <v>295</v>
+      </c>
+      <c r="M69" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>297</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>297</v>
+      </c>
+      <c r="K70" t="s">
+        <v>298</v>
+      </c>
+      <c r="M70" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>290</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>300</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>300</v>
+      </c>
+      <c r="K71" t="s">
+        <v>301</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
+        <v>285</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>303</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>303</v>
+      </c>
+      <c r="K72" t="s">
+        <v>304</v>
+      </c>
+      <c r="M72" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>290</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>306</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>306</v>
+      </c>
+      <c r="K73" t="s">
+        <v>307</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>286</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>309</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>309</v>
+      </c>
+      <c r="K74" t="s">
+        <v>310</v>
+      </c>
+      <c r="M74" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>286</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>312</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>312</v>
+      </c>
+      <c r="K75" t="s">
+        <v>313</v>
+      </c>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>286</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>315</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>315</v>
+      </c>
+      <c r="K76" t="s">
+        <v>316</v>
+      </c>
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>320</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>321</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>321</v>
+      </c>
+      <c r="K77" t="s">
+        <v>322</v>
+      </c>
+      <c r="M77" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>319</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>320</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>324</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>324</v>
+      </c>
+      <c r="K78" t="s">
+        <v>325</v>
+      </c>
+      <c r="M78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>319</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>327</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>327</v>
+      </c>
+      <c r="K79" t="s">
+        <v>328</v>
+      </c>
+      <c r="M79" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>330</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>330</v>
+      </c>
+      <c r="K80" t="s">
+        <v>331</v>
+      </c>
+      <c r="M80" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>319</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>333</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>333</v>
+      </c>
+      <c r="K81" t="s">
+        <v>334</v>
+      </c>
+      <c r="M81" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" t="s">
+        <v>336</v>
+      </c>
+      <c r="E82" t="s">
+        <v>337</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>338</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>338</v>
+      </c>
+      <c r="K82" t="s">
+        <v>339</v>
+      </c>
+      <c r="M82" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>340</v>
+      </c>
+      <c r="B83" t="s">
+        <v>336</v>
+      </c>
+      <c r="E83" t="s">
+        <v>337</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>338</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>338</v>
+      </c>
+      <c r="K83" t="s">
+        <v>339</v>
+      </c>
+      <c r="M83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>341</v>
+      </c>
+      <c r="B84" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>343</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>344</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>344</v>
+      </c>
+      <c r="K84" t="s">
+        <v>345</v>
+      </c>
+      <c r="M84" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>347</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>348</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>348</v>
+      </c>
+      <c r="K85" t="s">
+        <v>349</v>
+      </c>
+      <c r="M85" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>347</v>
+      </c>
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>351</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>351</v>
+      </c>
+      <c r="K86" t="s">
+        <v>352</v>
+      </c>
+      <c r="M86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>353</v>
+      </c>
+      <c r="B87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>347</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>351</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>351</v>
+      </c>
+      <c r="K87" t="s">
+        <v>352</v>
+      </c>
+      <c r="M87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>355</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>356</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>356</v>
+      </c>
+      <c r="K88" t="s">
+        <v>357</v>
+      </c>
+      <c r="M88" t="s">
+        <v>24</v>
+      </c>
+      <c r="N88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>358</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>355</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>359</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>359</v>
+      </c>
+      <c r="K89" t="s">
+        <v>360</v>
+      </c>
+      <c r="M89" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>362</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" t="s">
+        <v>363</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>363</v>
+      </c>
+      <c r="K90" t="s">
+        <v>364</v>
+      </c>
+      <c r="M90" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>366</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>367</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>367</v>
+      </c>
+      <c r="K91" t="s">
+        <v>368</v>
+      </c>
+      <c r="M91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>362</v>
+      </c>
+      <c r="G92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" t="s">
+        <v>105</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92" t="s">
+        <v>370</v>
+      </c>
+      <c r="M92" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>371</v>
+      </c>
+      <c r="B93" t="s">
+        <v>268</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>372</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>372</v>
+      </c>
+      <c r="K93" t="s">
+        <v>373</v>
+      </c>
+      <c r="M93" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>374</v>
+      </c>
+      <c r="B94" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" t="s">
+        <v>375</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>351</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>351</v>
+      </c>
+      <c r="K94" t="s">
+        <v>352</v>
+      </c>
+      <c r="M94" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>376</v>
+      </c>
+      <c r="B95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>375</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>377</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>377</v>
+      </c>
+      <c r="K95" t="s">
+        <v>378</v>
+      </c>
+      <c r="M95" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>375</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>380</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>380</v>
+      </c>
+      <c r="K96" t="s">
+        <v>381</v>
+      </c>
+      <c r="M96" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>382</v>
+      </c>
+      <c r="B97" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>383</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>384</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>384</v>
+      </c>
+      <c r="K97" t="s">
+        <v>385</v>
+      </c>
+      <c r="M97" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" t="s">
+        <v>383</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s">
+        <v>387</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>387</v>
+      </c>
+      <c r="K98" t="s">
+        <v>388</v>
+      </c>
+      <c r="M98" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
